--- a/simulacoes/teste3.xlsx
+++ b/simulacoes/teste3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\desenv\fisica\flado-simulator\simulacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C9761B-64C7-4289-844F-58DC23F6927C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0130A4-8696-4B9B-8BF2-6095CCC95418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,73 +229,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1.0999999999999999E-2</c:v>
+                  <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1999999999999998E-2</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9000000000000001E-2</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>4.9000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.248</c:v>
+                  <c:v>0.16900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30199999999999999</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42599999999999999</c:v>
+                  <c:v>0.27700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52100000000000002</c:v>
+                  <c:v>0.34300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56200000000000006</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.46400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7</c:v>
+                  <c:v>0.55300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72799999999999998</c:v>
+                  <c:v>0.60199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79600000000000004</c:v>
+                  <c:v>0.629</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.81699999999999995</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81699999999999995</c:v>
+                  <c:v>0.71899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.84799999999999998</c:v>
+                  <c:v>0.70099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.86699999999999999</c:v>
+                  <c:v>0.73599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89300000000000002</c:v>
+                  <c:v>0.73099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.91600000000000004</c:v>
+                  <c:v>0.72899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.93600000000000005</c:v>
+                  <c:v>0.78600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.93100000000000005</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95499999999999996</c:v>
+                  <c:v>0.77700000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6F83-403C-BDCD-0EF4C0AB1114}"/>
+              <c16:uniqueId val="{00000000-FA8C-4D2A-92E7-945B964D25FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="492978608"/>
-        <c:axId val="492984840"/>
+        <c:axId val="465323024"/>
+        <c:axId val="470148960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="492978608"/>
+        <c:axId val="465323024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,12 +376,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492984840"/>
+        <c:crossAx val="470148960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="492984840"/>
+        <c:axId val="470148960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492978608"/>
+        <c:crossAx val="465323024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,23 +1054,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F5F376-662C-CCFB-1B47-06CA2A4CCC3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB282F6-5087-54B7-2EDF-542390915CA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,193 +1415,193 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.30199999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.42599999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.52100000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.56200000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.72799999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.79600000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.66500000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.71899999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.84799999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.91600000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.72899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.93100000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.95499999999999996</v>
+        <v>0.77700000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/simulacoes/teste3.xlsx
+++ b/simulacoes/teste3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\desenv\flado-simulator\simulacoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\desenv\fisica\flado-simulator\simulacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0130A4-8696-4B9B-8BF2-6095CCC95418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E17CD-FC24-49B2-8039-96A2187EE179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,73 +229,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
+                  <c:v>2.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.112</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16900000000000001</c:v>
+                  <c:v>0.29899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23200000000000001</c:v>
+                  <c:v>0.39800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27700000000000002</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>0.52600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38400000000000001</c:v>
+                  <c:v>0.51900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.46400000000000002</c:v>
+                  <c:v>0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.55300000000000005</c:v>
+                  <c:v>0.58199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60199999999999998</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.629</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.71899999999999997</c:v>
+                  <c:v>0.65200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70099999999999996</c:v>
+                  <c:v>0.71499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73599999999999999</c:v>
+                  <c:v>0.71299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.73099999999999998</c:v>
+                  <c:v>0.71699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72899999999999998</c:v>
+                  <c:v>0.75900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.78600000000000003</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.79</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77700000000000002</c:v>
+                  <c:v>0.79300000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -303,7 +303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA8C-4D2A-92E7-945B964D25FB}"/>
+              <c16:uniqueId val="{00000000-AEFC-4F50-8335-15B9B7249CAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -315,11 +315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="465323024"/>
-        <c:axId val="470148960"/>
+        <c:axId val="484072704"/>
+        <c:axId val="484073360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="465323024"/>
+        <c:axId val="484072704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,12 +376,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470148960"/>
+        <c:crossAx val="484073360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470148960"/>
+        <c:axId val="484073360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -438,7 +438,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465323024"/>
+        <c:crossAx val="484072704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1054,23 +1054,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB282F6-5087-54B7-2EDF-542390915CA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F22DBF-E923-1983-5156-A5C0A9CFEC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1418,190 +1418,190 @@
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.3</v>
       </c>
       <c r="B1">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.4</v>
       </c>
       <c r="B2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.6</v>
       </c>
       <c r="B4">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.7</v>
       </c>
       <c r="B5">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.9</v>
       </c>
       <c r="B7">
-        <v>0.23200000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.42599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.52600000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.2</v>
       </c>
       <c r="B10">
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.51900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11">
-        <v>0.46400000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12">
-        <v>0.55300000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13">
-        <v>0.60199999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1.8</v>
       </c>
       <c r="B16">
-        <v>0.71899999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.9</v>
       </c>
       <c r="B17">
-        <v>0.70099999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.73599999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.1</v>
       </c>
       <c r="B19">
-        <v>0.73099999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.71699999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.2000000000000002</v>
       </c>
       <c r="B20">
-        <v>0.72899999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.2999999999999998</v>
       </c>
       <c r="B21">
-        <v>0.78600000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.4</v>
       </c>
       <c r="B22">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.78600000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.5</v>
       </c>
       <c r="B23">
-        <v>0.77700000000000002</v>
+        <v>0.79300000000000004</v>
       </c>
     </row>
   </sheetData>
